--- a/1.中間報告/2.内容梗概/内容梗概(中間報告).xlsx
+++ b/1.中間報告/2.内容梗概/内容梗概(中間報告).xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="和文" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual" iterate="1" iterateCount="50" iterateDelta="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1201,6 +1201,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1210,24 +1324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,105 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,44 +1522,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>92325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>221030</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6" descr="検討項目.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2949825" y="5410201"/>
-          <a:ext cx="3843455" cy="1752600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -1579,7 +1541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1691,6 +1653,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>153033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>243455</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952750" y="5410833"/>
+          <a:ext cx="3862955" cy="1761492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
@@ -1993,56 +1993,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
-      <c r="S1" s="25" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="S1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="25" t="s">
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="27"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="60"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
       <c r="S2" s="8"/>
       <c r="T2" s="10"/>
       <c r="U2" s="1"/>
@@ -2053,17 +2053,17 @@
     <row r="3" spans="1:24">
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
       <c r="U3" s="6"/>
@@ -2111,506 +2111,506 @@
     </row>
     <row r="8" spans="1:24" ht="3.6" customHeight="1"/>
     <row r="9" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="60" t="s">
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
     </row>
     <row r="10" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="65"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="29"/>
     </row>
     <row r="11" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="62"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="26"/>
     </row>
     <row r="12" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="23" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="63" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="65"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="29"/>
     </row>
     <row r="13" spans="1:24" ht="20.45" customHeight="1">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="72"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="38"/>
     </row>
     <row r="14" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="51"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="23"/>
     </row>
     <row r="15" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="42"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="41"/>
     </row>
     <row r="16" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="45"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="42"/>
     </row>
     <row r="17" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="45"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="42"/>
     </row>
     <row r="18" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="45"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="42"/>
     </row>
     <row r="19" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="45"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="42"/>
     </row>
     <row r="20" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="45"/>
     </row>
     <row r="21" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="51"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="23"/>
     </row>
     <row r="22" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="42"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="41"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="45"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="42"/>
     </row>
     <row r="24" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="45"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="42"/>
     </row>
     <row r="25" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="45"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="42"/>
     </row>
     <row r="26" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -2627,174 +2627,174 @@
       <c r="X26" s="13"/>
     </row>
     <row r="27" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="21"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="49"/>
     </row>
     <row r="28" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="21"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="49"/>
     </row>
     <row r="29" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="21"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="49"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="21"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="49"/>
     </row>
     <row r="31" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="21"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="49"/>
     </row>
     <row r="32" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="21"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="49"/>
     </row>
     <row r="33" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -2811,343 +2811,367 @@
       <c r="X33" s="15"/>
     </row>
     <row r="34" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="42"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="41"/>
     </row>
     <row r="35" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="45"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="42"/>
     </row>
     <row r="36" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="45"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="42"/>
     </row>
     <row r="37" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="48"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="45"/>
     </row>
     <row r="38" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="56"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="53"/>
     </row>
     <row r="39" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="42"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="41"/>
     </row>
     <row r="40" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="45"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="42"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="45"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="42"/>
     </row>
     <row r="42" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="45"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="42"/>
     </row>
     <row r="43" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="45"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="42"/>
     </row>
     <row r="44" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="45"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="42"/>
     </row>
     <row r="45" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="59"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="G1:Q3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A17:X17"/>
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="A19:X19"/>
+    <mergeCell ref="A20:X20"/>
+    <mergeCell ref="A21:X21"/>
+    <mergeCell ref="A22:X22"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A23:X23"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A43:X43"/>
+    <mergeCell ref="A44:X44"/>
+    <mergeCell ref="A27:X32"/>
+    <mergeCell ref="A38:X38"/>
+    <mergeCell ref="A39:X39"/>
+    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A45:X45"/>
     <mergeCell ref="A14:X14"/>
@@ -3164,30 +3188,6 @@
     <mergeCell ref="A37:X37"/>
     <mergeCell ref="A40:X40"/>
     <mergeCell ref="A41:X41"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A43:X43"/>
-    <mergeCell ref="A44:X44"/>
-    <mergeCell ref="A27:X32"/>
-    <mergeCell ref="A38:X38"/>
-    <mergeCell ref="A39:X39"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A20:X20"/>
-    <mergeCell ref="A21:X21"/>
-    <mergeCell ref="A22:X22"/>
-    <mergeCell ref="A24:X24"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="A23:X23"/>
-    <mergeCell ref="A15:X15"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A17:X17"/>
-    <mergeCell ref="A18:X18"/>
-    <mergeCell ref="A19:X19"/>
-    <mergeCell ref="G1:Q3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>

--- a/1.中間報告/2.内容梗概/内容梗概(中間報告).xlsx
+++ b/1.中間報告/2.内容梗概/内容梗概(中間報告).xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-15" yWindow="6255" windowWidth="19260" windowHeight="6315"/>
   </bookViews>
   <sheets>
-    <sheet name="和文" sheetId="2" r:id="rId1"/>
+    <sheet name="中間報告会" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1201,12 +1201,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1216,15 +1333,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1255,12 +1363,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,108 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
@@ -1993,56 +1993,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="S1" s="58" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18"/>
+      <c r="S1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="60"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
       <c r="S2" s="8"/>
       <c r="T2" s="10"/>
       <c r="U2" s="1"/>
@@ -2053,17 +2053,17 @@
     <row r="3" spans="1:24">
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
       <c r="U3" s="6"/>
@@ -2111,506 +2111,506 @@
     </row>
     <row r="8" spans="1:24" ht="3.6" customHeight="1"/>
     <row r="9" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="65" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="24" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="26"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="62"/>
     </row>
     <row r="10" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="29"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="65"/>
     </row>
     <row r="11" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="26"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="62"/>
     </row>
     <row r="12" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="27" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="29"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="65"/>
     </row>
     <row r="13" spans="1:24" ht="20.45" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="38"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="72"/>
     </row>
     <row r="14" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="23"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="51"/>
     </row>
     <row r="15" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="42"/>
     </row>
     <row r="16" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="42"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="45"/>
     </row>
     <row r="17" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="45"/>
     </row>
     <row r="18" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="42"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="45"/>
     </row>
     <row r="19" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="45"/>
     </row>
     <row r="20" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="45"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="48"/>
     </row>
     <row r="21" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="23"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="51"/>
     </row>
     <row r="22" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="42"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="42"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="45"/>
     </row>
     <row r="24" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="45"/>
     </row>
     <row r="25" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="42"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="45"/>
     </row>
     <row r="26" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -2627,174 +2627,174 @@
       <c r="X26" s="13"/>
     </row>
     <row r="27" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="49"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="49"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="49"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="49"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="49"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="49"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -2811,367 +2811,343 @@
       <c r="X33" s="15"/>
     </row>
     <row r="34" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="42"/>
     </row>
     <row r="35" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="42"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="45"/>
     </row>
     <row r="36" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="42"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="45"/>
     </row>
     <row r="37" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="45"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="48"/>
     </row>
     <row r="38" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="53"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="56"/>
     </row>
     <row r="39" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="42"/>
     </row>
     <row r="40" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="42"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="45"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="42"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="45"/>
     </row>
     <row r="42" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="42"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="45"/>
     </row>
     <row r="43" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="42"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="45"/>
     </row>
     <row r="44" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="42"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="45"/>
     </row>
     <row r="45" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="20"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G1:Q3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A15:X15"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A17:X17"/>
-    <mergeCell ref="A18:X18"/>
-    <mergeCell ref="A19:X19"/>
-    <mergeCell ref="A20:X20"/>
-    <mergeCell ref="A21:X21"/>
-    <mergeCell ref="A22:X22"/>
-    <mergeCell ref="A24:X24"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="A23:X23"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A43:X43"/>
-    <mergeCell ref="A44:X44"/>
-    <mergeCell ref="A27:X32"/>
-    <mergeCell ref="A38:X38"/>
-    <mergeCell ref="A39:X39"/>
-    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A45:X45"/>
     <mergeCell ref="A14:X14"/>
@@ -3188,6 +3164,30 @@
     <mergeCell ref="A37:X37"/>
     <mergeCell ref="A40:X40"/>
     <mergeCell ref="A41:X41"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A43:X43"/>
+    <mergeCell ref="A44:X44"/>
+    <mergeCell ref="A27:X32"/>
+    <mergeCell ref="A38:X38"/>
+    <mergeCell ref="A39:X39"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A20:X20"/>
+    <mergeCell ref="A21:X21"/>
+    <mergeCell ref="A22:X22"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A23:X23"/>
+    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A17:X17"/>
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="A19:X19"/>
+    <mergeCell ref="G1:Q3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
